--- a/posesiones/1381260.xlsx
+++ b/posesiones/1381260.xlsx
@@ -1727,10 +1727,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>19</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2024,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>18</v>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>20</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>25</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>9</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>12</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>9</v>
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>17</v>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>30</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>15</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>19</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>17</v>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R31">
         <v>15</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R35">
         <v>13</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37">
         <v>16</v>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R38">
         <v>11</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R40">
         <v>15</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R42">
         <v>9</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R44">
         <v>20</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R46">
         <v>30</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3998,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R48">
         <v>18</v>
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R49">
         <v>23</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>33</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>12</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R69">
         <v>27</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5121,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R71">
         <v>9</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>26</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>17</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5568,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R80">
         <v>29</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R82">
         <v>23</v>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R83">
         <v>25</v>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R84">
         <v>2</v>
@@ -5821,10 +5821,10 @@
         <v>1</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5865,10 +5865,10 @@
         <v>1</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R87">
         <v>13</v>
@@ -5971,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R88">
         <v>21</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6165,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R92">
         <v>11</v>
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R93">
         <v>12</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R94">
         <v>12</v>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6371,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R96">
         <v>20</v>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6659,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6944,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R108">
         <v>30</v>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7047,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>12</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7150,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R112">
         <v>10</v>
@@ -7200,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7673,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R123">
         <v>31</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R126">
         <v>11</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R128">
         <v>20</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R130">
         <v>15</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R134">
         <v>18</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8464,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R139">
         <v>11</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R143">
         <v>24</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8761,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R145">
         <v>16</v>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8952,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9002,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R150">
         <v>17</v>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R152">
         <v>12</v>
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9205,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R154">
         <v>15</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R156">
         <v>16</v>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9402,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9502,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R160">
         <v>29</v>
@@ -9555,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R161">
         <v>15</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9658,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R163">
         <v>9</v>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9758,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R165">
         <v>8</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9861,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R167">
         <v>18</v>
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9964,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R169">
         <v>11</v>
@@ -10014,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10155,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R174">
         <v>12</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10490,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R180">
         <v>14</v>
@@ -10540,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10634,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10731,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R185">
         <v>30</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R187">
         <v>18</v>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10937,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R189">
         <v>22</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11131,7 +11131,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R193">
         <v>20</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11234,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R195">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11334,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11428,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11478,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R200">
         <v>8</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R202">
         <v>17</v>
@@ -11634,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R204">
         <v>6</v>
@@ -11728,10 +11728,10 @@
         <v>1</v>
       </c>
       <c r="P205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q205">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12148,10 +12148,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12201,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R215">
         <v>13</v>
@@ -12254,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12304,7 +12304,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R217">
         <v>4</v>
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R218">
         <v>15</v>
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12457,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R220">
         <v>5</v>
@@ -12507,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12557,7 +12557,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R222">
         <v>17</v>
@@ -12607,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12657,7 +12657,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R224">
         <v>14</v>
@@ -12710,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R226">
         <v>18</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12910,7 +12910,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R229">
         <v>28</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13010,7 +13010,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13057,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13107,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R233">
         <v>7</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R235">
         <v>20</v>
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13307,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R237">
         <v>16</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13410,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R239">
         <v>12</v>
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13510,7 +13510,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R241">
         <v>7</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13610,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R243">
         <v>19</v>
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13757,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13851,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13901,7 +13901,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R249">
         <v>7</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13998,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14048,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R252">
         <v>16</v>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14148,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R254">
         <v>16</v>
@@ -14201,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R255">
         <v>17</v>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14301,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14348,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14398,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R259">
         <v>16</v>
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R261">
         <v>10</v>
@@ -14551,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R263">
         <v>19</v>
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14792,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14889,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R269">
         <v>33</v>
@@ -14942,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14989,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15083,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15130,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15180,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R275">
         <v>14</v>
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15274,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15321,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15415,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15462,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15556,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R283">
         <v>35</v>
@@ -15609,7 +15609,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R284">
         <v>18</v>
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R285">
         <v>18</v>
@@ -15712,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15762,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R287">
         <v>19</v>
@@ -15815,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R289">
         <v>8</v>
@@ -15915,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15962,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16015,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R292">
         <v>13</v>
@@ -16065,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16112,7 +16112,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R296">
         <v>17</v>
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16312,7 +16312,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R298">
         <v>18</v>
@@ -16365,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16415,7 +16415,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R300">
         <v>24</v>
@@ -16468,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16515,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16562,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16609,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16750,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16797,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16847,7 +16847,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R309">
         <v>14</v>
@@ -16900,7 +16900,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R310">
         <v>21</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17003,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R312">
         <v>23</v>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17106,7 +17106,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R314">
         <v>17</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R315">
         <v>11</v>
@@ -17203,10 +17203,10 @@
         <v>1</v>
       </c>
       <c r="P316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q316">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17253,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17300,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17347,7 +17347,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17394,7 +17394,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17435,10 +17435,10 @@
         <v>1</v>
       </c>
       <c r="P321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q321">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17532,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17582,7 +17582,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R324">
         <v>23</v>
@@ -17632,7 +17632,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17682,7 +17682,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R326">
         <v>22</v>
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17785,7 +17785,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R328">
         <v>9</v>
@@ -17838,7 +17838,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17888,7 +17888,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R330">
         <v>22</v>
@@ -17938,7 +17938,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17985,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18032,7 +18032,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18126,7 +18126,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18220,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18270,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R338">
         <v>12</v>
@@ -18323,7 +18323,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R339">
         <v>15</v>
@@ -18373,7 +18373,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18420,7 +18420,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18470,7 +18470,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R342">
         <v>0</v>
@@ -18520,7 +18520,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18570,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18620,7 +18620,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R345">
         <v>24</v>
@@ -18673,7 +18673,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R346">
         <v>8</v>
@@ -18723,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18770,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18817,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18911,7 +18911,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18961,7 +18961,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R352">
         <v>21</v>
@@ -19011,7 +19011,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19058,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19108,7 +19108,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19158,7 +19158,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R356">
         <v>16</v>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19261,7 +19261,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R358">
         <v>4</v>
@@ -19314,7 +19314,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R359">
         <v>21</v>
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19408,7 +19408,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19455,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19552,7 +19552,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R364">
         <v>17</v>
@@ -19605,7 +19605,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19655,7 +19655,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R366">
         <v>17</v>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19799,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19849,7 +19849,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R370">
         <v>13</v>
@@ -19902,7 +19902,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R371">
         <v>22</v>
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20005,7 +20005,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R373">
         <v>5</v>
@@ -20055,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20105,7 +20105,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R375">
         <v>8</v>
@@ -20155,7 +20155,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20205,7 +20205,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R377">
         <v>5</v>
@@ -20258,7 +20258,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R378">
         <v>7</v>
@@ -20308,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20355,7 +20355,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20455,7 +20455,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R382">
         <v>8</v>
@@ -20505,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20596,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20643,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20690,7 +20690,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20784,7 +20784,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20831,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20928,7 +20928,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21025,7 +21025,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21119,7 +21119,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21166,7 +21166,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21216,7 +21216,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R398">
         <v>35</v>
@@ -21269,7 +21269,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R399">
         <v>12</v>
@@ -21322,7 +21322,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R400">
         <v>18</v>
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21422,7 +21422,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R402">
         <v>6</v>
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21522,7 +21522,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R404">
         <v>22</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21622,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21672,7 +21672,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21722,7 +21722,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R408">
         <v>42</v>
@@ -21775,7 +21775,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21825,7 +21825,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R410">
         <v>20</v>
@@ -21878,7 +21878,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21928,7 +21928,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R412">
         <v>14</v>
@@ -21978,7 +21978,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22022,7 +22022,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22072,7 +22072,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R415">
         <v>17</v>
@@ -22125,7 +22125,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22175,7 +22175,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R417">
         <v>17</v>
@@ -22228,7 +22228,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22275,7 +22275,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22372,7 +22372,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R421">
         <v>14</v>
@@ -22425,7 +22425,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22475,7 +22475,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R423">
         <v>8</v>
@@ -22525,7 +22525,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22575,7 +22575,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R425">
         <v>25</v>
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22772,7 +22772,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R429">
         <v>32</v>
@@ -22819,7 +22819,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22866,7 +22866,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22919,7 +22919,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R432">
         <v>16</v>
@@ -22963,10 +22963,10 @@
         <v>1</v>
       </c>
       <c r="P433" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q433">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="434" spans="1:17">
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
